--- a/Battery Storage Modlling_2025_Full_annex.xlsx
+++ b/Battery Storage Modlling_2025_Full_annex.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Szabó László\OneDrive - REKK Kft\Documents\Laci\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D91AB412-0DE9-4302-8AC0-A90FDD0BA04C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{4B736777-2403-4D24-A79C-6DD598E87017}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{EA324368-822E-491E-A2D5-D5EFB5B92A35}"/>
   </bookViews>
@@ -39587,15 +39587,15 @@
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F96A05D8-88D6-4FD9-A4BE-D7DA88E7D734}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="6a2e51af-a5c5-489b-918c-ec786261c52f"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="355ee49f-d860-4ffb-b15f-22c0a907abd5"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="355ee49f-d860-4ffb-b15f-22c0a907abd5"/>
-    <ds:schemaRef ds:uri="6a2e51af-a5c5-489b-918c-ec786261c52f"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>